--- a/Week 4/team-Ulm Protocol.xlsx
+++ b/Week 4/team-Ulm Protocol.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiko\Documents\GitHub\Abstract\week 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiko\Documents\GitHub\Abstract\Week 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D186E26-2BF2-4568-9E45-A8FF513F0586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18203A20-D6DC-47CC-B566-BE9E1108C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -58,23 +58,35 @@
     <t>Sequence Diagram</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                  30 /04/2022</t>
-  </si>
-  <si>
-    <t>finalized</t>
-  </si>
-  <si>
-    <t>Modification necessary</t>
-  </si>
-  <si>
-    <t>modification necessary</t>
+    <t xml:space="preserve">                                                                                                                  02 /05/2022</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>system architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                  007/05/2022</t>
+  </si>
+  <si>
+    <t>System architecture</t>
+  </si>
+  <si>
+    <t>Adijat and Amit did class diagram together</t>
+  </si>
+  <si>
+    <t>next work distribution will be on next meeting</t>
+  </si>
+  <si>
+    <t>start getting used to freeRTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -87,15 +99,8 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,30 +137,6 @@
         <bgColor theme="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -181,21 +162,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +386,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -446,7 +415,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
@@ -501,13 +470,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -515,36 +482,36 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -554,53 +521,84 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="12"/>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
